--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vishal data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{C0541FA4-2DF7-4D80-A351-45D330091D29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ADCFF9-75E1-4401-9442-1180CE4701E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{CD48F5DC-E86F-4613-B0C4-9F32DF0E4CEC}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="18" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>ORDER_ID</t>
   </si>
@@ -160,6 +163,15 @@
   </si>
   <si>
     <t>MAXIMUM</t>
+  </si>
+  <si>
+    <t>Sum of PRICE</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -195,14 +207,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -213,6 +234,1409 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Book3.xlsx]Sheet1!PivotTable15</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$17:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>name1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>name2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>name3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>name4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>name5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>name6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>name7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>name8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>name9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>name10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F927-4238-AFDC-66AC4805595B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="1464085440"/>
+        <c:axId val="1543087760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1464085440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543087760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1543087760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464085440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C8CB53-7BBE-412C-AB94-36FC04BBA166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44916.746304976848" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{CED5C9AC-E494-44B9-94C4-BD0ED4736BAE}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="ORDER_ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="110"/>
+    </cacheField>
+    <cacheField name="CUSTOMER_NAME" numFmtId="0">
+      <sharedItems count="10">
+        <s v="name1"/>
+        <s v="name2"/>
+        <s v="name3"/>
+        <s v="name4"/>
+        <s v="name5"/>
+        <s v="name6"/>
+        <s v="name7"/>
+        <s v="name8"/>
+        <s v="name9"/>
+        <s v="name10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CATEGORY" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="CITY" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ORDER_DATE" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2004-08-12T00:00:00" maxDate="2022-04-10T00:00:00"/>
+    </cacheField>
+    <cacheField name="PRICE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="599" maxValue="2999"/>
+    </cacheField>
+    <cacheField name="STATE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <n v="101"/>
+    <x v="0"/>
+    <s v="food"/>
+    <s v="ahmedabad"/>
+    <d v="2004-08-12T00:00:00"/>
+    <n v="899"/>
+    <s v="gujrat"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="1"/>
+    <s v="oil"/>
+    <s v="baroda"/>
+    <d v="2021-11-10T00:00:00"/>
+    <n v="799"/>
+    <s v="gujrat"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="2"/>
+    <s v="cakes"/>
+    <s v="ahmedabad"/>
+    <d v="2022-01-02T00:00:00"/>
+    <n v="1399"/>
+    <s v="gujrat"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="3"/>
+    <s v="fruits"/>
+    <s v="pune"/>
+    <d v="2021-12-01T00:00:00"/>
+    <n v="1299"/>
+    <s v="maharashtra"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="4"/>
+    <s v="chocolates"/>
+    <s v="surat"/>
+    <d v="2021-12-15T00:00:00"/>
+    <n v="999"/>
+    <s v="gujrat"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="5"/>
+    <s v="rice"/>
+    <s v="ahmedabad"/>
+    <d v="2021-11-20T00:00:00"/>
+    <n v="1799"/>
+    <s v="gujrat"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="6"/>
+    <s v="cakes"/>
+    <s v="mumbai"/>
+    <d v="2021-12-01T00:00:00"/>
+    <n v="899"/>
+    <s v="maharashtra"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="7"/>
+    <s v="cookies"/>
+    <s v="bangalore"/>
+    <d v="2022-02-03T00:00:00"/>
+    <n v="2999"/>
+    <s v="karnataka"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="8"/>
+    <s v="health drinks"/>
+    <s v="pune"/>
+    <d v="2021-02-19T00:00:00"/>
+    <n v="1999"/>
+    <s v="maharashtra"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="9"/>
+    <s v="noodles"/>
+    <s v="mumbai"/>
+    <d v="2022-04-09T00:00:00"/>
+    <n v="599"/>
+    <s v="maharashtra"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89DBA045-9162-48EA-9812-74F1D983503C}" name="PivotTable15" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B16:C27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of PRICE" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{06C32780-684A-44BD-9208-8365470C6132}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{72C5D70E-8C68-4152-94CB-D54218421E88}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6E5C1356-6F41-468E-B797-E462A3DF52B2}" name="ORDER_ID"/>
+    <tableColumn id="2" xr3:uid="{F89DFC91-6D38-412C-A7F0-5BB1583ED5C0}" name="CUSTOMER_NAME"/>
+    <tableColumn id="3" xr3:uid="{AA07C73A-5672-4B73-A273-28D2D415D319}" name="CATEGORY"/>
+    <tableColumn id="4" xr3:uid="{35E040BD-3F5C-494B-837C-603AC29D79D7}" name="CITY"/>
+    <tableColumn id="5" xr3:uid="{AD98DD02-A2EE-4751-AB26-C4DBE75570A2}" name="ORDER_DATE" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{ACEF91F5-4F5C-4784-9612-30FA4CE7E713}" name="PRICE"/>
+    <tableColumn id="7" xr3:uid="{07D0EB74-FB70-4C6D-A3A6-1B7A80B4F334}" name="STATE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,15 +1936,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD314BA8-678E-4189-8397-2E313F48BE72}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -910,7 +2337,130 @@
         <v>599</v>
       </c>
     </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
+        <v>799</v>
+      </c>
+      <c r="I18" t="e">
+        <f>VLOOKUP(E17,A1:G11,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E17,A1:G11,2,0),"NOT")</f>
+        <v>NOT</v>
+      </c>
+      <c r="K18" t="str">
+        <f>INDEX(C2:C11,M18)</f>
+        <v>chocolates</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1299</v>
+      </c>
+      <c r="K20" t="str">
+        <f>INDEX(A1:G7,4,4)</f>
+        <v>ahmedabad</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1799</v>
+      </c>
+      <c r="K22" t="str">
+        <f>INDEX(A1:G6,4,2)</f>
+        <v>name3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13690</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>